--- a/CountryData/Brazil/Brazil_Workbook.xlsx
+++ b/CountryData/Brazil/Brazil_Workbook.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Brazil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E4B456E8-53CA-433F-B37A-4469F37C21FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:40009_{E4B456E8-53CA-433F-B37A-4469F37C21FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEA94D07-63A7-495E-AA46-5454AC19684C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="24675" yWindow="7455" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brazil_Popup" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,9 @@
     <t>212,559,409 (2020)</t>
   </si>
   <si>
-    <t>Metal/ Ore Exports (% of Total Merchandise Exports)</t>
-  </si>
-  <si>
     <t>13.884% (2019)</t>
   </si>
   <si>
-    <t>Fuel Exports (% of Total Merchandise Exports)</t>
-  </si>
-  <si>
     <t>13.45% (2019)</t>
   </si>
   <si>
@@ -77,35 +71,102 @@
   </si>
   <si>
     <r>
-      <t>National Petroleum Law of 1997 (“Law 9478/1997”)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Portuguese)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Law No. 12.351 of 2010 (“Law 12.351/2010”)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Portuguese)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ANP Resolutions No. 37/2007, 38/2007 and No. 19/2013 (“ANP Resolution 19/2013”) </t>
+      <t>ELLED Relevant News: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF241C15"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">August 2018 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brazil Eases Local Content Rules for Libra Offshore Oilfield</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>June 2018 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brazil Presidential Decree Next Week to Overhaul Mining Rules: Sources </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">December 2017 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brazil will likely Limit Cuts to Local Content Regulations in Oil and Gas after Pressure from Domestic Suppliers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">April 2017 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brazil Announces Timetable for New Oil and Gas Auctions and Changes to Local Content Requirements</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">March 2017 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brazil to Lower Oil Industry Local Purchasing Rules by Half -Minister</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Analysis and Case Studies:</t>
     </r>
     <r>
       <rPr>
@@ -120,17 +181,180 @@
   </si>
   <si>
     <r>
-      <t>Decree Nº 8.637 of January 15, 2016 (the “Decree”)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Portuguese)</t>
-    </r>
+      <t>Lacerda de Araújo et al. (2021) –</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Local Content and Extractive Industry in Brazil</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Deloitte (2021) –</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Local Content Policy: Upstream Guide </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Filgueiras de Almeida (2015) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Local Content Policies and the Petroleum Sector: A Comparative Analysis Between Brazil and Norway</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Portuguese) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Columbia Centre on Sustainable Investment (2020) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Local Content: Brazil – Petroleum </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Relevant Initiatives </t>
+  </si>
+  <si>
+    <r>
+      <t>Beyond Extraction: Economic Opportunities in Mining Communities (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Completed, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2016-2020) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>—</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2020 Project Report, Beyond Extraction: Economic Opportunities in Mining Communities</t>
+    </r>
+  </si>
+  <si>
+    <t>Fuel Exports (% of Total Merchandise Exports)*</t>
+  </si>
+  <si>
+    <t>Metal/ Ore Exports (% of Total Merchandise Exports)*</t>
+  </si>
+  <si>
+    <t>National Petroleum Law of 1997 (“Law 9478/1997”) (Portuguese)</t>
+  </si>
+  <si>
+    <t>Law No. 12.351 of 2010 (“Law 12.351/2010”) (Portuguese)</t>
+  </si>
+  <si>
+    <t>Decree Nº 8.637 of January 15, 2016 (the “Decree”) (Portuguese)</t>
+  </si>
+  <si>
+    <t>ANP Resolutions No. 37/2007, 38/2007 and No. 19/2013 (“ANP Resolution 19/2013”)</t>
+  </si>
+  <si>
+    <t>ANP’s April 2018 Resolution No. 726/2018 (Portuguese)</t>
+  </si>
+  <si>
+    <t>Tender Protocol 2019 (“Tender Protocol”) (Portuguese)</t>
+  </si>
+  <si>
+    <t>Model Concession Contract for Exploration and Production of Oil and Gas of 2019 (“Model Contract 2019”) (Portuguese)</t>
   </si>
   <si>
     <r>
@@ -139,321 +363,20 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Portuguese)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ANP’s April 2018 Resolution No. 726/2018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Portuguese)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Tender Protocol 2019 (“Tender Protocol”)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Portuguese)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Model Concession Contract for Exploration and Production of Oil and Gas of 2019 (“Model Contract 2019”)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Portuguese)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ELLED Relevant News: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF241C15"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">August 2018 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Brazil Eases Local Content Rules for Libra Offshore Oilfield</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>June 2018 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Brazil Presidential Decree Next Week to Overhaul Mining Rules: Sources </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">December 2017 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Brazil will likely Limit Cuts to Local Content Regulations in Oil and Gas after Pressure from Domestic Suppliers</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">April 2017 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Brazil Announces Timetable for New Oil and Gas Auctions and Changes to Local Content Requirements</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">March 2017 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Brazil to Lower Oil Industry Local Purchasing Rules by Half -Minister</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Analysis and Case Studies:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Lacerda de Araújo et al. (2021) –</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Local Content and Extractive Industry in Brazil</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Deloitte (2021) –</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Local Content Policy: Upstream Guide </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Filgueiras de Almeida (2015) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Local Content Policies and the Petroleum Sector: A Comparative Analysis Between Brazil and Norway</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Portuguese) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Columbia Centre on Sustainable Investment (2020) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Local Content: Brazil – Petroleum </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Relevant Initiatives </t>
-  </si>
-  <si>
-    <r>
-      <t>Beyond Extraction: Economic Opportunities in Mining Communities (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Completed, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2016-2020) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>—</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2020 Project Report, Beyond Extraction: Economic Opportunities in Mining Communities</t>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Portuguese)(Paywall)</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -584,13 +507,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -685,6 +601,21 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1079,76 +1010,80 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1506,25 +1441,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:G38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.42578125" customWidth="1"/>
+    <col min="1" max="1" width="62.140625" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1532,234 +1467,283 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="B6" s="6">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7" t="s">
+    </row>
+    <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="B24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="17"/>
+      <c r="B27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="19"/>
+      <c r="A29" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="17"/>
     </row>
     <row r="31" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="1:2" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="17"/>
+      <c r="A32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:2" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="15"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="21"/>
+    <row r="37" spans="1:2" s="20" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="19"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
+      <c r="A38" s="18"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
+      <c r="A39" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=BR"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=BR"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=BR"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking"/>
-    <hyperlink ref="A10" r:id="rId5" display="https://atlas.cid.harvard.edu/countries/32/export-basket"/>
-    <hyperlink ref="A13" r:id="rId6" display="https://www.ariae.org/sites/default/files/2017-05/cartilha_lei_9478_ingles.pdf"/>
-    <hyperlink ref="A14" r:id="rId7" display="https://www.ecolex.org/details/legislation/law-no-12351-on-the-exploitation-and-production-of-oil-natural-gas-and-other-liquid-hydrocarbons-and-amending-the-national-energy-policy-lex-faoc121303/"/>
-    <hyperlink ref="A16" r:id="rId8" display="http://www.planalto.gov.br/ccivil_03/_Ato2015-2018/2016/Decreto/D8637.htm"/>
-    <hyperlink ref="A17" r:id="rId9" display="https://www.ogel.org/legal-and-regulatory-detail.asp?key=28449"/>
-    <hyperlink ref="A18" r:id="rId10" display="http://www.in.gov.br/materia/-/asset_publisher/Kujrw0TZC2Mb/content/id/10488950/do1-2018-04-16-resolucao-n-726-de-11-de-abril-de-2018-10488946"/>
-    <hyperlink ref="A19" r:id="rId11" display="http://rodadas.anp.gov.br/arquivos/Round16/edital/edital-r16.pdf"/>
-    <hyperlink ref="A20" r:id="rId12" display="http://rodadas.anp.gov.br/arquivos/Round16/edital/contrato_R16_08082019.pdf"/>
-    <hyperlink ref="A23" r:id="rId13" display="https://www.reuters.com/article/brazil-oillocalcontent/brazil-eases-local-content-rules-for-libra-offshoreoilfield-idUKL2N1VB1JC?edition-redirect=uk"/>
-    <hyperlink ref="A24" r:id="rId14" display="https://www.reuters.com/article/us-brazil-mining/brazil-presidential-decree-next-week-to-overhaul-mining-rules-sources-idUSKCN1J22HK?utm_source=CIM+Master+List&amp;utm_campaign=81e0f4b06b-EMAIL_CAMPAIGN_2018_05_18_COPY_01&amp;utm_medium=email&amp;utm_term=0_9f5c486eba-81e0f4b06b-48136137&amp;mc_cid=81e0f4b06b&amp;mc_eid=b60521bc6a"/>
-    <hyperlink ref="A25" r:id="rId15" display="https://www.reuters.com/article/us-brazil-oil-localcontent/brazil-likely-to-limit-cuts-to-local-content-requirements-in-oil-contracts-idUSKBN1E52F1"/>
-    <hyperlink ref="A26" r:id="rId16" display="https://www.nortonrosefulbright.com/en/knowledge/publications/4f98766b/brazil-announces-timetable-for-new-oil-and-gas-auctions-and-changes-to-local-content-requirements"/>
-    <hyperlink ref="A27" r:id="rId17" display="https://www.reuters.com/article/idUKL1N1G71PD?edition-redirect=uk"/>
-    <hyperlink ref="A32" r:id="rId18" display="http://www.ppe.ufrj.br/images/publica%C3%A7%C3%B5es/mestrado/Raquel_Filgueiras_de_Almeida.pdf"/>
-    <hyperlink ref="A33" r:id="rId19" display="https://ccsi.columbia.edu/sites/default/files/content/docs/our focus/extractive industries/Local-Content-Brazil-CCSI-February-2020.pdf"/>
-    <hyperlink ref="A37" r:id="rId20" display="https://publications.iadb.org/publications/english/document/Beyond-Extraction-Economic-Opportunities-in-Mining-Communities-Case-Study-of-a-Regional-Local-Economic-Development-Program-in-Brazil-Chile-and-Peru-2016-2020.pdf"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=BR" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=BR" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=BR" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://atlas.cid.harvard.edu/countries/32/export-basket" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A17" r:id="rId9" display="https://www.ogel.org/legal-and-regulatory-detail.asp?key=28449" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A23" r:id="rId13" display="https://www.reuters.com/article/brazil-oillocalcontent/brazil-eases-local-content-rules-for-libra-offshoreoilfield-idUKL2N1VB1JC?edition-redirect=uk" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A24" r:id="rId14" display="https://www.reuters.com/article/us-brazil-mining/brazil-presidential-decree-next-week-to-overhaul-mining-rules-sources-idUSKCN1J22HK?utm_source=CIM+Master+List&amp;utm_campaign=81e0f4b06b-EMAIL_CAMPAIGN_2018_05_18_COPY_01&amp;utm_medium=email&amp;utm_term=0_9f5c486eba-81e0f4b06b-48136137&amp;mc_cid=81e0f4b06b&amp;mc_eid=b60521bc6a" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A25" r:id="rId15" display="https://www.reuters.com/article/us-brazil-oil-localcontent/brazil-likely-to-limit-cuts-to-local-content-requirements-in-oil-contracts-idUSKBN1E52F1" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A26" r:id="rId16" display="https://www.nortonrosefulbright.com/en/knowledge/publications/4f98766b/brazil-announces-timetable-for-new-oil-and-gas-auctions-and-changes-to-local-content-requirements" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A27" r:id="rId17" display="https://www.reuters.com/article/idUKL1N1G71PD?edition-redirect=uk" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A32" r:id="rId18" display="http://www.ppe.ufrj.br/images/publica%C3%A7%C3%B5es/mestrado/Raquel_Filgueiras_de_Almeida.pdf" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A33" r:id="rId19" display="https://ccsi.columbia.edu/sites/default/files/content/docs/our focus/extractive industries/Local-Content-Brazil-CCSI-February-2020.pdf" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A37" r:id="rId20" display="https://publications.iadb.org/publications/english/document/Beyond-Extraction-Economic-Opportunities-in-Mining-Communities-Case-Study-of-a-Regional-Local-Economic-Development-Program-in-Brazil-Chile-and-Peru-2016-2020.pdf" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A15" r:id="rId21" display="ANP Resolutions No. 37/2007, 38/2007 and No. 19/2013 (“ANP Resolution 19/2013”)  " xr:uid="{2EA71DEE-4C4A-4CDD-857B-A070B39EBFC0}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId21"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId22"/>
   <webPublishItems count="1">
     <webPublishItem id="2766" divId="Brazil_Workbook_2766" sourceType="range" sourceRef="A1:G38" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Brazil\Brazil_Popup.htm" autoRepublish="1"/>
   </webPublishItems>

--- a/CountryData/Brazil/Brazil_Workbook.xlsx
+++ b/CountryData/Brazil/Brazil_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Brazil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:40009_{E4B456E8-53CA-433F-B37A-4469F37C21FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEA94D07-63A7-495E-AA46-5454AC19684C}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:40009_{E4B456E8-53CA-433F-B37A-4469F37C21FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3003C5C1-ECC8-4BFD-9C9E-22E8FC9C9547}"/>
   <bookViews>
-    <workbookView xWindow="24675" yWindow="7455" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brazil_Popup" sheetId="1" r:id="rId1"/>
@@ -86,86 +86,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">August 2018 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Brazil Eases Local Content Rules for Libra Offshore Oilfield</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>June 2018 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Brazil Presidential Decree Next Week to Overhaul Mining Rules: Sources </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">December 2017 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Brazil will likely Limit Cuts to Local Content Regulations in Oil and Gas after Pressure from Domestic Suppliers</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">April 2017 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Brazil Announces Timetable for New Oil and Gas Auctions and Changes to Local Content Requirements</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">March 2017 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Brazil to Lower Oil Industry Local Purchasing Rules by Half -Minister</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Analysis and Case Studies:</t>
     </r>
     <r>
@@ -180,12 +100,100 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Lacerda de Araújo et al. (2021) –</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+    <t xml:space="preserve">Relevant Initiatives </t>
+  </si>
+  <si>
+    <t>Fuel Exports (% of Total Merchandise Exports)*</t>
+  </si>
+  <si>
+    <t>Metal/ Ore Exports (% of Total Merchandise Exports)*</t>
+  </si>
+  <si>
+    <t>ANP Resolutions No. 37/2007, 38/2007 and No. 19/2013 (“ANP Resolution 19/2013”)</t>
+  </si>
+  <si>
+    <t>Lacerda de Araújo et al. (2021) – Local Content and Extractive Industry in Brazil</t>
+  </si>
+  <si>
+    <r>
+      <t>Beyond Extraction: Economic Opportunities in Mining Communities (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Completed, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2016-2020) </t>
+    </r>
+  </si>
+  <si>
+    <t>—2020 Project Report, Beyond Extraction: Economic Opportunities in Mining Communities</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">National Petroleum Law of 1997 (“Law 9478/1997”) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Portuguese)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Law No. 12.351 of 2010 (“Law 12.351/2010”) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Portuguese)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Decree Nº 8.637 of January 15, 2016 (the “Decree”) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Portuguese)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Brazil's National Energy Policy Council (CNPE) Resolution n.07/2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -195,180 +203,261 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Local Content and Extractive Industry in Brazil</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Portuguese)(Paywall)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ANP’s April 2018 Resolution No. 726/2018 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Portuguese)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tender Protocol 2019 (“Tender Protocol”) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Portuguese)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Model Concession Contract for Exploration and Production of Oil and Gas of 2019 (“Model Contract 2019”) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Portuguese)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">August 2018 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brazil Eases Local Content Rules for Libra Offshore Oilfield</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>June 2018 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brazil Presidential Decree Next Week to Overhaul Mining Rules: Sources </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>December 2017 –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Brazil will likely Limit Cuts to Local Content Regulations in Oil and Gas after Pressure from Domestic Suppliers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">April 2017 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brazil Announces Timetable for New Oil and Gas Auctions and Changes to Local Content Requirements</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>March 2017 –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Brazil to Lower Oil Industry Local Purchasing Rules by Half -Minister</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Deloitte (2021) –</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Local Content Policy: Upstream Guide  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Filgueiras de Almeida (2015) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Local Content Policies and the Petroleum Sector: A Comparative Analysis Between Brazil and Norway </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Portuguese)</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Local Content Policy: Upstream Guide </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Filgueiras de Almeida (2015) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Local Content Policies and the Petroleum Sector: A Comparative Analysis Between Brazil and Norway</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Portuguese) </t>
-    </r>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Columbia Centre on Sustainable Investment (2020) – </t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0563C1"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Local Content: Brazil – Petroleum </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Relevant Initiatives </t>
-  </si>
-  <si>
-    <r>
-      <t>Beyond Extraction: Economic Opportunities in Mining Communities (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Completed, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2016-2020) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>—</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2020 Project Report, Beyond Extraction: Economic Opportunities in Mining Communities</t>
-    </r>
-  </si>
-  <si>
-    <t>Fuel Exports (% of Total Merchandise Exports)*</t>
-  </si>
-  <si>
-    <t>Metal/ Ore Exports (% of Total Merchandise Exports)*</t>
-  </si>
-  <si>
-    <t>National Petroleum Law of 1997 (“Law 9478/1997”) (Portuguese)</t>
-  </si>
-  <si>
-    <t>Law No. 12.351 of 2010 (“Law 12.351/2010”) (Portuguese)</t>
-  </si>
-  <si>
-    <t>Decree Nº 8.637 of January 15, 2016 (the “Decree”) (Portuguese)</t>
-  </si>
-  <si>
-    <t>ANP Resolutions No. 37/2007, 38/2007 and No. 19/2013 (“ANP Resolution 19/2013”)</t>
-  </si>
-  <si>
-    <t>ANP’s April 2018 Resolution No. 726/2018 (Portuguese)</t>
-  </si>
-  <si>
-    <t>Tender Protocol 2019 (“Tender Protocol”) (Portuguese)</t>
-  </si>
-  <si>
-    <t>Model Concession Contract for Exploration and Production of Oil and Gas of 2019 (“Model Contract 2019”) (Portuguese)</t>
-  </si>
-  <si>
-    <r>
-      <t>Brazil's National Energy Policy Council (CNPE) Resolution n.07/2017</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Portuguese)(Paywall)</t>
     </r>
   </si>
 </sst>
@@ -376,7 +465,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -545,52 +634,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF241C15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF241C15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF241C15"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF241C15"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1155CC"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -598,21 +724,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1013,26 +1124,17 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1042,48 +1144,71 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1442,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G39"/>
+  <dimension ref="A2:H39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,270 +1580,387 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="26"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="16"/>
+    </row>
+    <row r="31" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+    </row>
+    <row r="33" spans="1:8" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="1:8" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-    </row>
-    <row r="33" spans="1:2" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="15"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" s="20" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="19"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A30:B30"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=BR" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=BR" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -1732,20 +1974,22 @@
     <hyperlink ref="A18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="A19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="A20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A23" r:id="rId13" display="https://www.reuters.com/article/brazil-oillocalcontent/brazil-eases-local-content-rules-for-libra-offshoreoilfield-idUKL2N1VB1JC?edition-redirect=uk" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A24" r:id="rId14" display="https://www.reuters.com/article/us-brazil-mining/brazil-presidential-decree-next-week-to-overhaul-mining-rules-sources-idUSKCN1J22HK?utm_source=CIM+Master+List&amp;utm_campaign=81e0f4b06b-EMAIL_CAMPAIGN_2018_05_18_COPY_01&amp;utm_medium=email&amp;utm_term=0_9f5c486eba-81e0f4b06b-48136137&amp;mc_cid=81e0f4b06b&amp;mc_eid=b60521bc6a" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A25" r:id="rId15" display="https://www.reuters.com/article/us-brazil-oil-localcontent/brazil-likely-to-limit-cuts-to-local-content-requirements-in-oil-contracts-idUSKBN1E52F1" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A26" r:id="rId16" display="https://www.nortonrosefulbright.com/en/knowledge/publications/4f98766b/brazil-announces-timetable-for-new-oil-and-gas-auctions-and-changes-to-local-content-requirements" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A27" r:id="rId17" display="https://www.reuters.com/article/idUKL1N1G71PD?edition-redirect=uk" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A32" r:id="rId18" display="http://www.ppe.ufrj.br/images/publica%C3%A7%C3%B5es/mestrado/Raquel_Filgueiras_de_Almeida.pdf" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A33" r:id="rId19" display="https://ccsi.columbia.edu/sites/default/files/content/docs/our focus/extractive industries/Local-Content-Brazil-CCSI-February-2020.pdf" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A37" r:id="rId20" display="https://publications.iadb.org/publications/english/document/Beyond-Extraction-Economic-Opportunities-in-Mining-Communities-Case-Study-of-a-Regional-Local-Economic-Development-Program-in-Brazil-Chile-and-Peru-2016-2020.pdf" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A15" r:id="rId21" display="ANP Resolutions No. 37/2007, 38/2007 and No. 19/2013 (“ANP Resolution 19/2013”)  " xr:uid="{2EA71DEE-4C4A-4CDD-857B-A070B39EBFC0}"/>
+    <hyperlink ref="A15" r:id="rId13" display="ANP Resolutions No. 37/2007, 38/2007 and No. 19/2013 (“ANP Resolution 19/2013”)  " xr:uid="{2EA71DEE-4C4A-4CDD-857B-A070B39EBFC0}"/>
+    <hyperlink ref="A23" r:id="rId14" display="https://elledframework.github.io/ElledMap/CountryData/Brazil/News/Brazil eases local content rules for Libra offshore oilfield.pdf" xr:uid="{8A8E797F-EEF8-4BD6-8C68-4514BD464940}"/>
+    <hyperlink ref="A24" r:id="rId15" display="https://elledframework.github.io/ElledMap/CountryData/Brazil/News/Brazil presidential decree next week to overhaul mining rules.pdf" xr:uid="{74FC06BB-D28D-4A11-9EEB-793E098A8F52}"/>
+    <hyperlink ref="A25" r:id="rId16" display="https://elledframework.github.io/ElledMap/CountryData/Brazil/News/Brazil likely to limit cuts to local content requirements in oil contracts.pdf" xr:uid="{0CC3DEA3-EA0D-4414-A2C2-E9FCA92EC0E3}"/>
+    <hyperlink ref="A26" r:id="rId17" display="https://elledframework.github.io/ElledMap/CountryData/Brazil/News/Brazil announces timetable for new oil and gas auctions and changes to local content requirements.pdf" xr:uid="{CA44B1EF-406F-4339-8E1D-234A15783F84}"/>
+    <hyperlink ref="A27" r:id="rId18" display="https://elledframework.github.io/ElledMap/CountryData/Brazil/News/Brazil to lower oil industry local purchasing rules by half.pdf" xr:uid="{CAA0A0E5-3E63-44A4-B64C-C6D80C621DD0}"/>
+    <hyperlink ref="A31" r:id="rId19" display="https://elledframework.github.io/ElledMap/CountryData/Brazil/Analysis_and_Case_Studies/Local Content Policy _ Upstream Guide _ Deloitte Brazil.pdf" xr:uid="{697D0396-CB06-4805-AA46-160E89CF9D36}"/>
+    <hyperlink ref="A32" r:id="rId20" display="https://elledframework.github.io/ElledMap/CountryData/Brazil/Analysis_and_Case_Studies/Local Content Policies and the Petroleum Sector.pdf" xr:uid="{4DE64BA1-671A-46FA-8EEE-D4A7BE6A5466}"/>
+    <hyperlink ref="A33" r:id="rId21" display="https://elledframework.github.io/ElledMap/CountryData/Brazil/Analysis_and_Case_Studies/Local_Content_Brazil_CCSI.pdf" xr:uid="{E73C006E-AD82-459F-A865-F846541A7B1A}"/>
+    <hyperlink ref="A37" r:id="rId22" display="https://elledframework.github.io/ElledMap/CountryData/Brazil/Relevant Iniatives/Beyond_Extraction.pdf" xr:uid="{72989B04-01C7-4197-8B39-F63B4C56A089}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId22"/>
-  <webPublishItems count="1">
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId23"/>
+  <webPublishItems count="2">
     <webPublishItem id="2766" divId="Brazil_Workbook_2766" sourceType="range" sourceRef="A1:G38" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Brazil\Brazil_Popup.htm" autoRepublish="1"/>
+    <webPublishItem id="19031" divId="Brazil_Workbook_19031" sourceType="range" sourceRef="A1:I38" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Brazil\Brazil_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>